--- a/public/data/templates/negociant-tag-list.xlsx
+++ b/public/data/templates/negociant-tag-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebStormProjects\mining-company-management-system-backend\public\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321FAA7-3E2E-434D-A487-AC86A4CC9111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0AF5B-C35C-484B-90F2-83B0CE17A87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>NEGOCIANT TAG NUMBER</t>
-  </si>
-  <si>
-    <t>MATERIAL :WOLFRAMITE</t>
   </si>
   <si>
     <t>PRICE</t>
@@ -63,9 +60,6 @@
     </r>
   </si>
   <si>
-    <t>SAMPLE: 8KGS</t>
-  </si>
-  <si>
     <t>DONE AT KIGALI ………………………………</t>
   </si>
   <si>
@@ -75,22 +69,19 @@
     <t>NZARAMBA DANY</t>
   </si>
   <si>
-    <t xml:space="preserve">BUYER: HALCYON INC. </t>
-  </si>
-  <si>
-    <t>WKKIG2303</t>
-  </si>
-  <si>
-    <t>iTSCi SHIPMENT NUMBER: KZM/RW/ 0000022</t>
-  </si>
-  <si>
-    <t>DUST: 22.5KGS</t>
-  </si>
-  <si>
-    <t>NET WEIGHT: 24786.5KGS</t>
-  </si>
-  <si>
-    <t>Date: 16/11/2023</t>
+    <t>MATERIAL :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUYER: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET WEIGHT: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE: </t>
+  </si>
+  <si>
+    <t>DUST:</t>
   </si>
 </sst>
 </file>
@@ -329,14 +320,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -730,7 +721,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,18 +740,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="11"/>
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -769,38 +760,32 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="11"/>
       <c r="E4" s="15"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="15"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="11"/>
       <c r="E6" s="15"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -818,10 +803,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,14 +833,14 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -863,7 +848,7 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
@@ -877,17 +862,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
